--- a/Unity/Assets/Config/Excel/Datas/BattleLevelConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/BattleLevelConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40656505-45DA-4A6C-B3CB-5E81F0DBD114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1DE44D-E428-44A0-A7B9-E73D2BDCEE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>##var</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -84,6 +84,34 @@
   </si>
   <si>
     <t>FootHoldConfig中的落脚点Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>array,int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*IdList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*PosXList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*PosYList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*PosZList</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -428,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -440,7 +468,7 @@
     <col min="5" max="5" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,8 +484,20 @@
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -470,8 +510,20 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -479,7 +531,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -490,7 +542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -501,17 +553,120 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="2">
+        <v>3</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="2">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="2">
+        <v>6</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H12" s="2">
+        <v>7</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.2"/>

--- a/Unity/Assets/Config/Excel/Datas/BattleLevelConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/BattleLevelConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1DE44D-E428-44A0-A7B9-E73D2BDCEE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACF36DA-D815-4318-9B59-4C2C0DA28F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>##var</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(list#sep=;),int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>##</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -67,26 +63,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1;2;3;4;5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>关卡B</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6;7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FootHoldIds</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FootHoldConfig中的落脚点Id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>array,int</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -95,14 +75,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>关卡D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*IdList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>*PosXList</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -112,6 +84,10 @@
   </si>
   <si>
     <t>*PosZList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*FootHoldIds</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -456,19 +432,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,25 +451,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -508,165 +477,217 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="2">
+        <v>1002</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="2">
+        <v>1003</v>
+      </c>
+      <c r="E6" s="2">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="2">
+        <v>1004</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E8" s="2">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1006</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="2">
+        <v>1007</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H7" s="2">
-        <v>2</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H8" s="2">
-        <v>3</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H9" s="2">
+      <c r="D11" s="2">
+        <v>1001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="2">
+        <v>1002</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="2">
+        <v>1003</v>
+      </c>
+      <c r="E13" s="2">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="2">
+        <v>1004</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="2">
+        <v>1005</v>
+      </c>
+      <c r="E15" s="2">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
         <v>4</v>
       </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H10" s="2">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="2">
-        <v>6</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="H12" s="2">
-        <v>7</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -744,8 +765,6 @@
     <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/Datas/BattleLevelConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/BattleLevelConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACF36DA-D815-4318-9B59-4C2C0DA28F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF2004B-44DF-4765-88CA-EFED49E115FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>##var</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>##TODO，怪物属性加成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>关卡B</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -75,6 +71,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>关卡D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>*PosXList</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -87,7 +87,54 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>*FootHoldIds</t>
+    <t>array,(list#sep=;),int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001;1002;1003;1004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001;1002;1003;1004;1005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpawnConfig中的Id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##TODO，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物属性加成</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X坐标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y坐标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z坐标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>##*ModelName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源模型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*SpawnInfos</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -148,10 +195,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -432,341 +480,408 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="21.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22" style="1" customWidth="1"/>
+    <col min="10" max="10" width="21" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-40</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-20</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="3">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>20</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>40</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1006</v>
+      </c>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="3">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1006</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-40</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>-20</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="3">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>20</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="3">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>40</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1006</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="3">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E4" s="2">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="2">
-        <v>1002</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D6" s="2">
-        <v>1003</v>
-      </c>
-      <c r="E6" s="2">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="2">
-        <v>1004</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="2">
-        <v>1005</v>
-      </c>
-      <c r="E8" s="2">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1006</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="2">
-        <v>1007</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2">
-        <v>3</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="2">
-        <v>1001</v>
-      </c>
-      <c r="E11" s="2">
-        <v>20</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="2">
-        <v>1002</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>-20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="2">
-        <v>1003</v>
-      </c>
-      <c r="E13" s="2">
-        <v>20</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D14" s="2">
-        <v>1004</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D15" s="2">
-        <v>1005</v>
-      </c>
-      <c r="E15" s="2">
-        <v>20</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="2">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/Datas/BattleLevelConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/BattleLevelConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF2004B-44DF-4765-88CA-EFED49E115FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E27854F-1920-405F-A8BA-7D227538E6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>##var</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -67,14 +67,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>关卡C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>*PosXList</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -95,10 +87,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1001;1002;1003;1004;1005</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>SpawnConfig中的Id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -135,6 +123,14 @@
   </si>
   <si>
     <t>*SpawnInfos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>*SpawnGuide</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>守关怪</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -195,11 +191,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -480,405 +475,300 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="21.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="21.75" customWidth="1"/>
+    <col min="9" max="9" width="19.125" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>-40</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1005</v>
+      </c>
+      <c r="J4" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-20</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1005</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="2">
         <v>20</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1005</v>
+      </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1006</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="2">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>40</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>-40</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>-20</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E6" s="3">
-        <v>20</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>20</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>40</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
         <v>1006</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="3">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
         <v>10</v>
       </c>
-      <c r="I10" s="1">
-        <v>1006</v>
-      </c>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="3">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>-40</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>-20</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E13" s="3">
-        <v>20</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>20</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E15" s="3">
-        <v>20</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>40</v>
-      </c>
-      <c r="I15" s="1">
-        <v>1006</v>
-      </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="3">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="J10"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/Datas/BattleLevelConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/BattleLevelConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectXET\Unity\Assets\Config\Excel\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E27854F-1920-405F-A8BA-7D227538E6EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E48E855-0C1A-4109-B32B-0F5ECDD5BFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28830" yWindow="630" windowWidth="28770" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>##var</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -478,7 +478,7 @@
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -691,11 +691,8 @@
       <c r="G9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9">
         <v>1006</v>
-      </c>
-      <c r="J9" t="s">
-        <v>14</v>
       </c>
       <c r="K9" s="1"/>
     </row>
